--- a/Polymer_data.xlsx
+++ b/Polymer_data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arifurrahman\Desktop\Coursework\NN_paper_polymer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arifurrahman\Desktop\Coursework\NN_paper_polymer\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A06E4-6D85-4807-927B-4DFF21FA2EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ADC3A7-7426-4020-8B8C-738500F3A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{027C94B6-3C78-4933-9D89-2CECFB45F699}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{027C94B6-3C78-4933-9D89-2CECFB45F699}"/>
   </bookViews>
   <sheets>
-    <sheet name="pH" sheetId="1" r:id="rId1"/>
-    <sheet name="Salinity" sheetId="2" r:id="rId2"/>
+    <sheet name="pH_data" sheetId="3" r:id="rId1"/>
+    <sheet name="Salinity_data" sheetId="4" r:id="rId2"/>
+    <sheet name="pH" sheetId="1" r:id="rId3"/>
+    <sheet name="Salinity" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>PAM</t>
   </si>
@@ -105,10 +107,10 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>Empirical</t>
+    <t>MPL</t>
   </si>
   <si>
-    <t>MPL</t>
+    <t>ln t, lab</t>
   </si>
 </sst>
 </file>
@@ -181,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,6 +213,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,11 +535,5146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3B4FF2-3EE3-4837-829C-E79A5D93B6EB}">
+  <dimension ref="A1:T94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="12" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="13.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13" style="19" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="19" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>85</v>
+      </c>
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:I33" ca="1" si="0">C2*$H$3</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J65" si="1">F2+273.15</f>
+        <v>358.15</v>
+      </c>
+      <c r="K2" s="10">
+        <v>140</v>
+      </c>
+      <c r="L2" s="10">
+        <v>4.9416424226093039</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>100</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K3" s="10">
+        <v>72</v>
+      </c>
+      <c r="L3" s="10">
+        <v>4.2766661190160553</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>110</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K4" s="10">
+        <v>15</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>120</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K5" s="10">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>85</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K6" s="10">
+        <v>150</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5.0106352940962555</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K7" s="10">
+        <v>84</v>
+      </c>
+      <c r="L7" s="10">
+        <v>4.4308167988433134</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>110</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K8" s="10">
+        <v>15</v>
+      </c>
+      <c r="L8" s="10">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>120</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>85</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K10" s="10">
+        <v>135</v>
+      </c>
+      <c r="L10" s="10">
+        <v>4.9052747784384296</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>100</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K11" s="10">
+        <v>120</v>
+      </c>
+      <c r="L11" s="10">
+        <v>4.7874917427820458</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>110</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K12" s="10">
+        <v>20</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>120</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K13" s="10">
+        <v>10</v>
+      </c>
+      <c r="L13" s="10">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="10">
+        <v>85</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K14" s="10">
+        <v>144</v>
+      </c>
+      <c r="L14" s="10">
+        <v>4.9698132995760007</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F15" s="10">
+        <v>100</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K15" s="10">
+        <v>96</v>
+      </c>
+      <c r="L15" s="10">
+        <v>4.5643481914678361</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F16" s="10">
+        <v>110</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K16" s="10">
+        <v>15</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F17" s="10">
+        <v>120</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="10">
+        <v>85</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K18" s="10">
+        <v>132</v>
+      </c>
+      <c r="L18" s="10">
+        <v>4.8828019225863706</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F19" s="10">
+        <v>100</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K19" s="10">
+        <v>84</v>
+      </c>
+      <c r="L19" s="10">
+        <v>4.4308167988433134</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F20" s="10">
+        <v>110</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K20" s="10">
+        <v>15</v>
+      </c>
+      <c r="L20" s="10">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F21" s="10">
+        <v>120</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K21" s="10">
+        <v>6</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F22" s="10">
+        <v>85</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K22" s="10">
+        <v>120</v>
+      </c>
+      <c r="L22" s="10">
+        <v>4.7874917427820458</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F23" s="10">
+        <v>100</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K23" s="10">
+        <v>60</v>
+      </c>
+      <c r="L23" s="10">
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F24" s="10">
+        <v>110</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K24" s="10">
+        <v>14</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F25" s="10">
+        <v>120</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K25" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="L25" s="10">
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F26" s="10">
+        <v>85</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K26" s="10">
+        <v>108</v>
+      </c>
+      <c r="L26" s="10">
+        <v>4.6821312271242199</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F27" s="10">
+        <v>100</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K27" s="10">
+        <v>48</v>
+      </c>
+      <c r="L27" s="10">
+        <v>3.8712010109078911</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F28" s="10">
+        <v>110</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K28" s="10">
+        <v>12</v>
+      </c>
+      <c r="L28" s="10">
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F29" s="10">
+        <v>120</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K29" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="L29" s="10">
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14">
+        <v>8</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="10">
+        <v>85</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K30" s="12">
+        <v>166.800183469469</v>
+      </c>
+      <c r="L30" s="10">
+        <v>5.1167965898609058</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="10">
+        <v>100</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K31" s="12">
+        <v>97.629219047556504</v>
+      </c>
+      <c r="L31" s="10">
+        <v>4.5811768241024069</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row r="32" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8">
+        <v>8</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="10">
+        <v>110</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K32" s="12">
+        <v>20.6414591503124</v>
+      </c>
+      <c r="L32" s="10">
+        <v>3.0273016333816432</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="10">
+        <v>120</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K33" s="12">
+        <v>5.8796773644803197</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1.7715018904187827</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="10">
+        <v>85</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" ref="G34:I65" ca="1" si="2">C34*$H$3</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K34" s="12">
+        <v>168</v>
+      </c>
+      <c r="L34" s="10">
+        <v>5.1239639794032588</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="10">
+        <v>100</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K35" s="12">
+        <v>72.926922275690202</v>
+      </c>
+      <c r="L35" s="10">
+        <v>4.2894578750318848</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="10">
+        <v>110</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K36" s="12">
+        <v>15.847678148094399</v>
+      </c>
+      <c r="L36" s="10">
+        <v>2.7630230005134986</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="10">
+        <v>120</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K37" s="12">
+        <v>7.3850775332197403</v>
+      </c>
+      <c r="L37" s="10">
+        <v>1.9994614146715952</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="10">
+        <v>85</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K38" s="12">
+        <v>168</v>
+      </c>
+      <c r="L38" s="10">
+        <v>5.1239639794032588</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="10">
+        <v>100</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K39" s="12">
+        <v>48.156623593519399</v>
+      </c>
+      <c r="L39" s="10">
+        <v>3.8744586904348912</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F40" s="10">
+        <v>110</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K40" s="12">
+        <v>12.424995709951199</v>
+      </c>
+      <c r="L40" s="10">
+        <v>2.5197102267070752</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="10">
+        <v>120</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K41" s="12">
+        <v>7.3850775332197403</v>
+      </c>
+      <c r="L41" s="10">
+        <v>1.9994614146715952</v>
+      </c>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="10">
+        <v>85</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K42" s="12">
+        <v>168</v>
+      </c>
+      <c r="L42" s="10">
+        <v>5.1239639794032588</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="10">
+        <v>100</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K43" s="12">
+        <v>48.156623593519399</v>
+      </c>
+      <c r="L43" s="10">
+        <v>3.8744586904348912</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F44" s="10">
+        <v>110</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K44" s="12">
+        <v>15.847678148094399</v>
+      </c>
+      <c r="L44" s="10">
+        <v>2.7630230005134986</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="10">
+        <v>120</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K45" s="12">
+        <v>7.3850775332197403</v>
+      </c>
+      <c r="L45" s="10">
+        <v>1.9994614146715952</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="10">
+        <v>85</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K46" s="12">
+        <v>82.395510835913299</v>
+      </c>
+      <c r="L46" s="10">
+        <v>4.411530955284646</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="10">
+        <v>100</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K47" s="12">
+        <v>53.5094286518435</v>
+      </c>
+      <c r="L47" s="10">
+        <v>3.9798578748571924</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F48" s="10">
+        <v>110</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K48" s="12">
+        <v>11.850021108922</v>
+      </c>
+      <c r="L48" s="10">
+        <v>2.4723296489231825</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F49" s="10">
+        <v>120</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K49" s="12">
+        <v>4.93262735716295</v>
+      </c>
+      <c r="L49" s="10">
+        <v>1.5958717785839283</v>
+      </c>
+      <c r="M49" s="9"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
+        <v>8</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F50" s="10">
+        <v>85</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K50" s="12">
+        <v>80</v>
+      </c>
+      <c r="L50" s="10">
+        <v>4.3820266346738812</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
+        <v>8</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="10">
+        <v>100</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K51" s="12">
+        <v>36.001266535322202</v>
+      </c>
+      <c r="L51" s="10">
+        <v>3.5835541193739822</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>8</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F52" s="10">
+        <v>110</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J52" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K52" s="12">
+        <v>13.8775330706445</v>
+      </c>
+      <c r="L52" s="10">
+        <v>2.6302712066198373</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8">
+        <v>8</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F53" s="10">
+        <v>120</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J53" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K53" s="12">
+        <v>4.93262735716295</v>
+      </c>
+      <c r="L53" s="10">
+        <v>1.5958717785839283</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F54" s="10">
+        <v>85</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J54" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K54" s="12">
+        <v>74.881790036588797</v>
+      </c>
+      <c r="L54" s="10">
+        <v>4.3159107372867691</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="10"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F55" s="10">
+        <v>100</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J55" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K55" s="12">
+        <v>36.001266535322202</v>
+      </c>
+      <c r="L55" s="10">
+        <v>3.5835541193739822</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="10"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F56" s="10">
+        <v>110</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K56" s="12">
+        <v>11.850021108922</v>
+      </c>
+      <c r="L56" s="10">
+        <v>2.4723296489231825</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="10"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F57" s="10">
+        <v>120</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K57" s="12">
+        <v>4.93262735716295</v>
+      </c>
+      <c r="L57" s="10">
+        <v>1.5958717785839283</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8">
+        <v>9</v>
+      </c>
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F58" s="10">
+        <v>85</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K58" s="12">
+        <v>72.079052913031205</v>
+      </c>
+      <c r="L58" s="10">
+        <v>4.2777634738274006</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8">
+        <v>9</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F59" s="10">
+        <v>100</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+      <c r="K59" s="12">
+        <v>36.001266535322202</v>
+      </c>
+      <c r="L59" s="10">
+        <v>3.5835541193739822</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8">
+        <v>9</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F60" s="10">
+        <v>110</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I60" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J60" s="10">
+        <f t="shared" si="1"/>
+        <v>383.15</v>
+      </c>
+      <c r="K60" s="12">
+        <v>11.850021108922</v>
+      </c>
+      <c r="L60" s="10">
+        <v>2.4723296489231825</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="8">
+        <v>9</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F61" s="10">
+        <v>120</v>
+      </c>
+      <c r="G61" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J61" s="10">
+        <f t="shared" si="1"/>
+        <v>393.15</v>
+      </c>
+      <c r="K61" s="12">
+        <v>4.93262735716295</v>
+      </c>
+      <c r="L61" s="10">
+        <v>1.5958717785839283</v>
+      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="10"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="8">
+        <v>8</v>
+      </c>
+      <c r="C62" s="12">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="10">
+        <v>85</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I62" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K62" s="10">
+        <v>140</v>
+      </c>
+      <c r="L62" s="10">
+        <v>4.9416424226093039</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>61</v>
+      </c>
+      <c r="B63" s="14">
+        <v>8</v>
+      </c>
+      <c r="C63" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="10">
+        <v>85</v>
+      </c>
+      <c r="G63" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="H63" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I63" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J63" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K63" s="10">
+        <v>100</v>
+      </c>
+      <c r="L63" s="10">
+        <v>4.6051701859880918</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="8">
+        <v>8</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="10">
+        <v>85</v>
+      </c>
+      <c r="G64" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H64" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I64" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J64" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K64" s="10">
+        <v>83.874150360000002</v>
+      </c>
+      <c r="L64" s="10">
+        <v>4.4293174654044734</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="10"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>63</v>
+      </c>
+      <c r="B65" s="8">
+        <v>8</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="10">
+        <v>85</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H65" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I65" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J65" s="10">
+        <f t="shared" si="1"/>
+        <v>358.15</v>
+      </c>
+      <c r="K65" s="10">
+        <v>73.231718040000004</v>
+      </c>
+      <c r="L65" s="10">
+        <v>4.2936286336744667</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8">
+        <v>8</v>
+      </c>
+      <c r="C66" s="12">
+        <v>3</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="10">
+        <v>85</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" ref="G66:I93" ca="1" si="3">C66*$H$3</f>
+        <v>3</v>
+      </c>
+      <c r="H66" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J66" s="10">
+        <f t="shared" ref="J66:J93" si="4">F66+273.15</f>
+        <v>358.15</v>
+      </c>
+      <c r="K66" s="10">
+        <v>47.385810970000001</v>
+      </c>
+      <c r="L66" s="10">
+        <v>3.858322837263414</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="10"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>65</v>
+      </c>
+      <c r="B67" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C67" s="12">
+        <v>1</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F67" s="10">
+        <v>110</v>
+      </c>
+      <c r="G67" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I67" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J67" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K67" s="10">
+        <v>10</v>
+      </c>
+      <c r="L67" s="10">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="10"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>66</v>
+      </c>
+      <c r="B68" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C68" s="12">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F68" s="10">
+        <v>110</v>
+      </c>
+      <c r="G68" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I68" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="J68" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K68" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="L68" s="10">
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="10"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>67</v>
+      </c>
+      <c r="B69" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C69" s="12">
+        <v>1</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F69" s="10">
+        <v>110</v>
+      </c>
+      <c r="G69" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="I69" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="J69" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K69" s="10">
+        <v>5</v>
+      </c>
+      <c r="L69" s="10">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="10"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>68</v>
+      </c>
+      <c r="B70" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C70" s="12">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F70" s="10">
+        <v>110</v>
+      </c>
+      <c r="G70" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K70" s="10">
+        <v>5</v>
+      </c>
+      <c r="L70" s="10">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="10"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C71" s="12">
+        <v>1</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="10">
+        <v>110</v>
+      </c>
+      <c r="G71" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I71" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K71" s="10">
+        <v>5</v>
+      </c>
+      <c r="L71" s="10">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="10"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>70</v>
+      </c>
+      <c r="B72" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C72" s="12">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F72" s="10">
+        <v>110</v>
+      </c>
+      <c r="G72" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J72" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K72" s="10">
+        <v>30</v>
+      </c>
+      <c r="L72" s="10">
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="10"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>71</v>
+      </c>
+      <c r="B73" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C73" s="12">
+        <v>1</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F73" s="10">
+        <v>110</v>
+      </c>
+      <c r="G73" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I73" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J73" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K73" s="10">
+        <v>20</v>
+      </c>
+      <c r="L73" s="10">
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="10"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>72</v>
+      </c>
+      <c r="B74" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F74" s="10">
+        <v>110</v>
+      </c>
+      <c r="G74" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I74" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K74" s="10">
+        <v>15</v>
+      </c>
+      <c r="L74" s="10">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="10"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>73</v>
+      </c>
+      <c r="B75" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C75" s="12">
+        <v>1</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F75" s="10">
+        <v>110</v>
+      </c>
+      <c r="G75" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K75" s="10">
+        <v>14</v>
+      </c>
+      <c r="L75" s="10">
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="10"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C76" s="12">
+        <v>1</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F76" s="10">
+        <v>110</v>
+      </c>
+      <c r="G76" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I76" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K76" s="10">
+        <v>13</v>
+      </c>
+      <c r="L76" s="10">
+        <v>2.5649493574615367</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="10"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>75</v>
+      </c>
+      <c r="B77" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C77" s="12">
+        <v>1</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F77" s="10">
+        <v>110</v>
+      </c>
+      <c r="G77" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="I77" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K77" s="10">
+        <v>12</v>
+      </c>
+      <c r="L77" s="10">
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="10"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>76</v>
+      </c>
+      <c r="B78" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="10">
+        <v>110</v>
+      </c>
+      <c r="G78" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J78" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K78" s="10">
+        <v>11</v>
+      </c>
+      <c r="L78" s="10">
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>77</v>
+      </c>
+      <c r="B79" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C79" s="12">
+        <v>1</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F79" s="10">
+        <v>110</v>
+      </c>
+      <c r="G79" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I79" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J79" s="10">
+        <f t="shared" si="4"/>
+        <v>383.15</v>
+      </c>
+      <c r="K79" s="10">
+        <v>10</v>
+      </c>
+      <c r="L79" s="10">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="10"/>
+    </row>
+    <row r="80" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>78</v>
+      </c>
+      <c r="B80" s="8">
+        <v>8</v>
+      </c>
+      <c r="C80" s="12">
+        <v>1</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="10">
+        <v>100</v>
+      </c>
+      <c r="G80" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I80" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J80" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K80" s="12">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="L80" s="10">
+        <v>1.6124334214138989</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="10"/>
+    </row>
+    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>79</v>
+      </c>
+      <c r="B81" s="8">
+        <v>8</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F81" s="10">
+        <v>100</v>
+      </c>
+      <c r="G81" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I81" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="J81" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K81" s="12">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="L81" s="10">
+        <v>1.3900373473987249</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>80</v>
+      </c>
+      <c r="B82" s="8">
+        <v>8</v>
+      </c>
+      <c r="C82" s="12">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F82" s="10">
+        <v>100</v>
+      </c>
+      <c r="G82" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="I82" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="J82" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K82" s="12">
+        <v>3.508</v>
+      </c>
+      <c r="L82" s="10">
+        <v>1.2550460745099365</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="10"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>81</v>
+      </c>
+      <c r="B83" s="8">
+        <v>8</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F83" s="10">
+        <v>100</v>
+      </c>
+      <c r="G83" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I83" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="J83" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K83" s="12">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="L83" s="10">
+        <v>1.1035998301791488</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8">
+        <v>8</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F84" s="10">
+        <v>100</v>
+      </c>
+      <c r="G84" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="I84" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="J84" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K84" s="12">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="L84" s="10">
+        <v>-0.16723591937591381</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="10"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>83</v>
+      </c>
+      <c r="B85" s="8">
+        <v>8</v>
+      </c>
+      <c r="C85" s="12">
+        <v>1</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F85" s="10">
+        <v>100</v>
+      </c>
+      <c r="G85" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J85" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K85" s="12">
+        <v>0.754</v>
+      </c>
+      <c r="L85" s="10">
+        <v>-0.28236291097418098</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="10"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>84</v>
+      </c>
+      <c r="B86" s="8">
+        <v>8</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F86" s="10">
+        <v>100</v>
+      </c>
+      <c r="G86" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H86" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I86" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J86" s="10">
+        <f t="shared" si="4"/>
+        <v>373.15</v>
+      </c>
+      <c r="K86" s="12">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="L86" s="10">
+        <v>-0.46044941644092391</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="10"/>
+    </row>
+    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
+        <v>85</v>
+      </c>
+      <c r="B87" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C87" s="12">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F87" s="10">
+        <v>120</v>
+      </c>
+      <c r="G87" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I87" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="J87" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K87" s="12">
+        <v>29.97</v>
+      </c>
+      <c r="L87" s="10">
+        <v>3.4001968813285717</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="10"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>86</v>
+      </c>
+      <c r="B88" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C88" s="12">
+        <v>1</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F88" s="10">
+        <v>120</v>
+      </c>
+      <c r="G88" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I88" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="J88" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K88" s="12">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="L88" s="10">
+        <v>2.3065771142635829</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="10"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
+        <v>87</v>
+      </c>
+      <c r="B89" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F89" s="10">
+        <v>120</v>
+      </c>
+      <c r="G89" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I89" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J89" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K89" s="12">
+        <v>9.94</v>
+      </c>
+      <c r="L89" s="10">
+        <v>2.2965670206684825</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="10"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>88</v>
+      </c>
+      <c r="B90" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C90" s="12">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E90" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F90" s="10">
+        <v>120</v>
+      </c>
+      <c r="G90" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I90" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="J90" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K90" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="L90" s="10">
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="10"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
+        <v>89</v>
+      </c>
+      <c r="B91" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C91" s="12">
+        <v>1</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="F91" s="10">
+        <v>120</v>
+      </c>
+      <c r="G91" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="I91" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="J91" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K91" s="12">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="L91" s="10">
+        <v>1.602614687085975</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="10"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>90</v>
+      </c>
+      <c r="B92" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C92" s="12">
+        <v>1</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F92" s="10">
+        <v>120</v>
+      </c>
+      <c r="G92" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I92" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="J92" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K92" s="12">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="L92" s="10">
+        <v>1.5999934536061007</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="10"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
+        <v>91</v>
+      </c>
+      <c r="B93" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C93" s="12">
+        <v>1</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="10">
+        <v>120</v>
+      </c>
+      <c r="G93" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I93" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="10">
+        <f t="shared" si="4"/>
+        <v>393.15</v>
+      </c>
+      <c r="K93" s="12">
+        <v>4.9409999999999998</v>
+      </c>
+      <c r="L93" s="10">
+        <v>1.597567739863613</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="10"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A357A5F3-7D00-4B40-B15A-B201E5348C67}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="10" width="8.88671875" style="7"/>
+    <col min="11" max="11" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.7850855453808698</v>
+      </c>
+      <c r="C2" s="2">
+        <v>119.71160342055499</v>
+      </c>
+      <c r="D2" s="2">
+        <v>358</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.7850855453808698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.8686552199320996</v>
+      </c>
+      <c r="C3" s="2">
+        <v>130.14578171053299</v>
+      </c>
+      <c r="D3" s="2">
+        <v>358</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.8686552199320996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.9689388293935783</v>
+      </c>
+      <c r="C4" s="2">
+        <v>143.87413133594899</v>
+      </c>
+      <c r="D4" s="2">
+        <v>358</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.9689388293935783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.1026503086755488</v>
+      </c>
+      <c r="C5" s="2">
+        <v>164.457192549143</v>
+      </c>
+      <c r="D5" s="2">
+        <v>358</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.1026503086755488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.1862199832267821</v>
+      </c>
+      <c r="C6" s="2">
+        <v>178.791439348083</v>
+      </c>
+      <c r="D6" s="2">
+        <v>358</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.1862199832267821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4.2836674980734886</v>
+      </c>
+      <c r="C7" s="2">
+        <v>72.505868112900501</v>
+      </c>
+      <c r="D7" s="2">
+        <v>373</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.2836674980734886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4.3839511075349646</v>
+      </c>
+      <c r="C8" s="2">
+        <v>80.154106067797002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>373</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.3839511075349646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4.5009486519066888</v>
+      </c>
+      <c r="C9" s="2">
+        <v>90.102566741604505</v>
+      </c>
+      <c r="D9" s="2">
+        <v>373</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.5009486519066888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4.6012322613681658</v>
+      </c>
+      <c r="C10" s="2">
+        <v>99.606981883751203</v>
+      </c>
+      <c r="D10" s="2">
+        <v>373</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.6012322613681658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4.6848019359193938</v>
+      </c>
+      <c r="C11" s="2">
+        <v>108.28882205801099</v>
+      </c>
+      <c r="D11" s="2">
+        <v>373</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.6848019359193938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.6958436816001026</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14.8180151677961</v>
+      </c>
+      <c r="D12" s="2">
+        <v>383</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.6958436816001026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.8796969656128106</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17.8088756601143</v>
+      </c>
+      <c r="D13" s="2">
+        <v>383</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.8796969656128106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3.1972617289074847</v>
+      </c>
+      <c r="C14" s="2">
+        <v>24.4654453689847</v>
+      </c>
+      <c r="D14" s="2">
+        <v>383</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3.1972617289074847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3.5482543620226576</v>
+      </c>
+      <c r="C15" s="2">
+        <v>34.752599050102297</v>
+      </c>
+      <c r="D15" s="2">
+        <v>383</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3.5482543620226576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3.8992469951378252</v>
+      </c>
+      <c r="C16" s="2">
+        <v>49.365262823633003</v>
+      </c>
+      <c r="D16" s="2">
+        <v>383</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3.8992469951378252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.2947092437541938</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.9215508399899299</v>
+      </c>
+      <c r="D17" s="2">
+        <v>393</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.2947092437541938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2.4618485928566525</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11.7264689827116</v>
+      </c>
+      <c r="D18" s="2">
+        <v>393</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.4618485928566525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.7626994212410878</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15.842550997494399</v>
+      </c>
+      <c r="D19" s="2">
+        <v>393</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.7626994212410878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.979980575074288</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.687434214101</v>
+      </c>
+      <c r="D20" s="2">
+        <v>393</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2.979980575074288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.2139756638177328</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24.877795628814798</v>
+      </c>
+      <c r="D21" s="2">
+        <v>393</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.2139756638177328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4569064F-A347-4D72-B383-D53EEB64CC70}">
   <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,10 +5724,10 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="15" t="s">
@@ -625,19 +5769,19 @@
         <v>85</v>
       </c>
       <c r="G2" s="13">
-        <f ca="1">C2*$H$3</f>
+        <f t="shared" ref="G2:G33" ca="1" si="0">C2*$H$3</f>
         <v>1</v>
       </c>
       <c r="H2" s="13">
-        <f ca="1">D2*$H$3</f>
+        <f t="shared" ref="H2:H33" ca="1" si="1">D2*$H$3</f>
         <v>0.3</v>
       </c>
       <c r="I2" s="13">
-        <f ca="1">E2*$H$3</f>
+        <f t="shared" ref="I2:I33" ca="1" si="2">E2*$H$3</f>
         <v>0.2</v>
       </c>
       <c r="J2" s="10">
-        <f>F2+273.15</f>
+        <f t="shared" ref="J2:J33" si="3">F2+273.15</f>
         <v>358.15</v>
       </c>
       <c r="K2" s="10">
@@ -691,19 +5835,19 @@
         <v>100</v>
       </c>
       <c r="G3" s="13">
-        <f ca="1">C3*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="13">
-        <f ca="1">D3*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I3" s="13">
-        <f ca="1">E3*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J3" s="10">
-        <f>F3+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K3" s="10">
@@ -757,19 +5901,19 @@
         <v>110</v>
       </c>
       <c r="G4" s="13">
-        <f ca="1">C4*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" s="13">
-        <f ca="1">D4*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I4" s="13">
-        <f ca="1">E4*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J4" s="10">
-        <f>F4+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K4" s="10">
@@ -823,19 +5967,19 @@
         <v>120</v>
       </c>
       <c r="G5" s="13">
-        <f ca="1">C5*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="13">
-        <f ca="1">D5*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I5" s="13">
-        <f ca="1">E5*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J5" s="10">
-        <f>F5+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K5" s="10">
@@ -889,19 +6033,19 @@
         <v>85</v>
       </c>
       <c r="G6" s="13">
-        <f ca="1">C6*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="13">
-        <f ca="1">D6*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I6" s="13">
-        <f ca="1">E6*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J6" s="10">
-        <f>F6+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K6" s="10">
@@ -955,19 +6099,19 @@
         <v>100</v>
       </c>
       <c r="G7" s="13">
-        <f ca="1">C7*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="13">
-        <f ca="1">D7*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I7" s="13">
-        <f ca="1">E7*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J7" s="10">
-        <f>F7+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K7" s="10">
@@ -1021,19 +6165,19 @@
         <v>110</v>
       </c>
       <c r="G8" s="13">
-        <f ca="1">C8*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="13">
-        <f ca="1">D8*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I8" s="13">
-        <f ca="1">E8*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J8" s="10">
-        <f>F8+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K8" s="10">
@@ -1087,19 +6231,19 @@
         <v>120</v>
       </c>
       <c r="G9" s="13">
-        <f ca="1">C9*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="13">
-        <f ca="1">D9*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I9" s="13">
-        <f ca="1">E9*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J9" s="10">
-        <f>F9+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K9" s="10">
@@ -1153,19 +6297,19 @@
         <v>85</v>
       </c>
       <c r="G10" s="13">
-        <f ca="1">C10*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="13">
-        <f ca="1">D10*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I10" s="13">
-        <f ca="1">E10*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J10" s="10">
-        <f>F10+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K10" s="10">
@@ -1219,19 +6363,19 @@
         <v>100</v>
       </c>
       <c r="G11" s="13">
-        <f ca="1">C11*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="13">
-        <f ca="1">D11*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I11" s="13">
-        <f ca="1">E11*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J11" s="10">
-        <f>F11+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K11" s="10">
@@ -1285,19 +6429,19 @@
         <v>110</v>
       </c>
       <c r="G12" s="13">
-        <f ca="1">C12*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="13">
-        <f ca="1">D12*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I12" s="13">
-        <f ca="1">E12*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J12" s="10">
-        <f>F12+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K12" s="10">
@@ -1351,19 +6495,19 @@
         <v>120</v>
       </c>
       <c r="G13" s="13">
-        <f ca="1">C13*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="13">
-        <f ca="1">D13*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I13" s="13">
-        <f ca="1">E13*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J13" s="10">
-        <f>F13+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K13" s="10">
@@ -1417,19 +6561,19 @@
         <v>85</v>
       </c>
       <c r="G14" s="13">
-        <f ca="1">C14*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H14" s="13">
-        <f ca="1">D14*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I14" s="13">
-        <f ca="1">E14*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J14" s="10">
-        <f>F14+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K14" s="10">
@@ -1483,19 +6627,19 @@
         <v>100</v>
       </c>
       <c r="G15" s="13">
-        <f ca="1">C15*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="13">
-        <f ca="1">D15*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I15" s="13">
-        <f ca="1">E15*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J15" s="10">
-        <f>F15+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K15" s="10">
@@ -1549,19 +6693,19 @@
         <v>110</v>
       </c>
       <c r="G16" s="13">
-        <f ca="1">C16*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" s="13">
-        <f ca="1">D16*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I16" s="13">
-        <f ca="1">E16*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J16" s="10">
-        <f>F16+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K16" s="10">
@@ -1615,19 +6759,19 @@
         <v>120</v>
       </c>
       <c r="G17" s="13">
-        <f ca="1">C17*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" s="13">
-        <f ca="1">D17*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I17" s="13">
-        <f ca="1">E17*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J17" s="10">
-        <f>F17+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K17" s="10">
@@ -1681,19 +6825,19 @@
         <v>85</v>
       </c>
       <c r="G18" s="13">
-        <f ca="1">C18*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" s="13">
-        <f ca="1">D18*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I18" s="13">
-        <f ca="1">E18*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J18" s="10">
-        <f>F18+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K18" s="10">
@@ -1747,19 +6891,19 @@
         <v>100</v>
       </c>
       <c r="G19" s="13">
-        <f ca="1">C19*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="13">
-        <f ca="1">D19*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I19" s="13">
-        <f ca="1">E19*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J19" s="10">
-        <f>F19+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K19" s="10">
@@ -1813,19 +6957,19 @@
         <v>110</v>
       </c>
       <c r="G20" s="13">
-        <f ca="1">C20*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" s="13">
-        <f ca="1">D20*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I20" s="13">
-        <f ca="1">E20*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J20" s="10">
-        <f>F20+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K20" s="10">
@@ -1879,19 +7023,19 @@
         <v>120</v>
       </c>
       <c r="G21" s="13">
-        <f ca="1">C21*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" s="13">
-        <f ca="1">D21*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I21" s="13">
-        <f ca="1">E21*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J21" s="10">
-        <f>F21+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K21" s="10">
@@ -1945,19 +7089,19 @@
         <v>85</v>
       </c>
       <c r="G22" s="13">
-        <f ca="1">C22*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" s="13">
-        <f ca="1">D22*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I22" s="13">
-        <f ca="1">E22*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J22" s="10">
-        <f>F22+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K22" s="10">
@@ -2011,19 +7155,19 @@
         <v>100</v>
       </c>
       <c r="G23" s="13">
-        <f ca="1">C23*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" s="13">
-        <f ca="1">D23*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I23" s="13">
-        <f ca="1">E23*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J23" s="10">
-        <f>F23+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K23" s="10">
@@ -2077,19 +7221,19 @@
         <v>110</v>
       </c>
       <c r="G24" s="13">
-        <f ca="1">C24*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" s="13">
-        <f ca="1">D24*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I24" s="13">
-        <f ca="1">E24*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J24" s="10">
-        <f>F24+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K24" s="10">
@@ -2143,19 +7287,19 @@
         <v>120</v>
       </c>
       <c r="G25" s="13">
-        <f ca="1">C25*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" s="13">
-        <f ca="1">D25*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I25" s="13">
-        <f ca="1">E25*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J25" s="10">
-        <f>F25+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K25" s="10">
@@ -2209,19 +7353,19 @@
         <v>85</v>
       </c>
       <c r="G26" s="13">
-        <f ca="1">C26*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" s="13">
-        <f ca="1">D26*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I26" s="13">
-        <f ca="1">E26*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J26" s="10">
-        <f>F26+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K26" s="10">
@@ -2275,19 +7419,19 @@
         <v>100</v>
       </c>
       <c r="G27" s="13">
-        <f ca="1">C27*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H27" s="13">
-        <f ca="1">D27*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I27" s="13">
-        <f ca="1">E27*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J27" s="10">
-        <f>F27+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K27" s="10">
@@ -2341,19 +7485,19 @@
         <v>110</v>
       </c>
       <c r="G28" s="13">
-        <f ca="1">C28*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H28" s="13">
-        <f ca="1">D28*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I28" s="13">
-        <f ca="1">E28*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J28" s="10">
-        <f>F28+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K28" s="10">
@@ -2407,19 +7551,19 @@
         <v>120</v>
       </c>
       <c r="G29" s="13">
-        <f ca="1">C29*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H29" s="13">
-        <f ca="1">D29*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.35</v>
       </c>
       <c r="I29" s="13">
-        <f ca="1">E29*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35</v>
       </c>
       <c r="J29" s="10">
-        <f>F29+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K29" s="10">
@@ -2473,19 +7617,19 @@
         <v>85</v>
       </c>
       <c r="G30" s="13">
-        <f ca="1">C30*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" s="13">
-        <f ca="1">D30*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I30" s="13">
-        <f ca="1">E30*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
       <c r="J30" s="10">
-        <f>F30+273.15</f>
+        <f t="shared" si="3"/>
         <v>358.15</v>
       </c>
       <c r="K30" s="12">
@@ -2539,19 +7683,19 @@
         <v>100</v>
       </c>
       <c r="G31" s="13">
-        <f ca="1">C31*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H31" s="13">
-        <f ca="1">D31*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I31" s="13">
-        <f ca="1">E31*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
       <c r="J31" s="10">
-        <f>F31+273.15</f>
+        <f t="shared" si="3"/>
         <v>373.15</v>
       </c>
       <c r="K31" s="12">
@@ -2605,19 +7749,19 @@
         <v>110</v>
       </c>
       <c r="G32" s="13">
-        <f ca="1">C32*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H32" s="13">
-        <f ca="1">D32*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I32" s="13">
-        <f ca="1">E32*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
       <c r="J32" s="10">
-        <f>F32+273.15</f>
+        <f t="shared" si="3"/>
         <v>383.15</v>
       </c>
       <c r="K32" s="12">
@@ -2671,19 +7815,19 @@
         <v>120</v>
       </c>
       <c r="G33" s="13">
-        <f ca="1">C33*$H$3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H33" s="13">
-        <f ca="1">D33*$H$3</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I33" s="13">
-        <f ca="1">E33*$H$3</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
       <c r="J33" s="10">
-        <f>F33+273.15</f>
+        <f t="shared" si="3"/>
         <v>393.15</v>
       </c>
       <c r="K33" s="12">
@@ -2737,19 +7881,19 @@
         <v>85</v>
       </c>
       <c r="G34" s="13">
-        <f ca="1">C34*$H$3</f>
+        <f t="shared" ref="G34:G65" ca="1" si="4">C34*$H$3</f>
         <v>1</v>
       </c>
       <c r="H34" s="13">
-        <f ca="1">D34*$H$3</f>
+        <f t="shared" ref="H34:H65" ca="1" si="5">D34*$H$3</f>
         <v>0.3</v>
       </c>
       <c r="I34" s="13">
-        <f ca="1">E34*$H$3</f>
+        <f t="shared" ref="I34:I65" ca="1" si="6">E34*$H$3</f>
         <v>0.3</v>
       </c>
       <c r="J34" s="10">
-        <f>F34+273.15</f>
+        <f t="shared" ref="J34:J65" si="7">F34+273.15</f>
         <v>358.15</v>
       </c>
       <c r="K34" s="12">
@@ -2803,19 +7947,19 @@
         <v>100</v>
       </c>
       <c r="G35" s="13">
-        <f ca="1">C35*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H35" s="13">
-        <f ca="1">D35*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I35" s="13">
-        <f ca="1">E35*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J35" s="10">
-        <f>F35+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K35" s="12">
@@ -2869,19 +8013,19 @@
         <v>110</v>
       </c>
       <c r="G36" s="13">
-        <f ca="1">C36*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H36" s="13">
-        <f ca="1">D36*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I36" s="13">
-        <f ca="1">E36*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J36" s="10">
-        <f>F36+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K36" s="12">
@@ -2935,19 +8079,19 @@
         <v>120</v>
       </c>
       <c r="G37" s="13">
-        <f ca="1">C37*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H37" s="13">
-        <f ca="1">D37*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I37" s="13">
-        <f ca="1">E37*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J37" s="10">
-        <f>F37+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K37" s="12">
@@ -3001,19 +8145,19 @@
         <v>85</v>
       </c>
       <c r="G38" s="13">
-        <f ca="1">C38*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H38" s="13">
-        <f ca="1">D38*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I38" s="13">
-        <f ca="1">E38*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J38" s="10">
-        <f>F38+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K38" s="12">
@@ -3067,19 +8211,19 @@
         <v>100</v>
       </c>
       <c r="G39" s="13">
-        <f ca="1">C39*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H39" s="13">
-        <f ca="1">D39*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I39" s="13">
-        <f ca="1">E39*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J39" s="10">
-        <f>F39+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K39" s="12">
@@ -3133,19 +8277,19 @@
         <v>110</v>
       </c>
       <c r="G40" s="13">
-        <f ca="1">C40*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H40" s="13">
-        <f ca="1">D40*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I40" s="13">
-        <f ca="1">E40*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J40" s="10">
-        <f>F40+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K40" s="12">
@@ -3199,19 +8343,19 @@
         <v>120</v>
       </c>
       <c r="G41" s="13">
-        <f ca="1">C41*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H41" s="13">
-        <f ca="1">D41*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I41" s="13">
-        <f ca="1">E41*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J41" s="10">
-        <f>F41+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K41" s="12">
@@ -3265,19 +8409,19 @@
         <v>85</v>
       </c>
       <c r="G42" s="13">
-        <f ca="1">C42*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H42" s="13">
-        <f ca="1">D42*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I42" s="13">
-        <f ca="1">E42*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J42" s="10">
-        <f>F42+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K42" s="12">
@@ -3331,19 +8475,19 @@
         <v>100</v>
       </c>
       <c r="G43" s="13">
-        <f ca="1">C43*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H43" s="13">
-        <f ca="1">D43*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I43" s="13">
-        <f ca="1">E43*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J43" s="10">
-        <f>F43+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K43" s="12">
@@ -3397,19 +8541,19 @@
         <v>110</v>
       </c>
       <c r="G44" s="13">
-        <f ca="1">C44*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H44" s="13">
-        <f ca="1">D44*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I44" s="13">
-        <f ca="1">E44*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J44" s="10">
-        <f>F44+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K44" s="12">
@@ -3463,19 +8607,19 @@
         <v>120</v>
       </c>
       <c r="G45" s="13">
-        <f ca="1">C45*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H45" s="13">
-        <f ca="1">D45*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I45" s="13">
-        <f ca="1">E45*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.3</v>
       </c>
       <c r="J45" s="10">
-        <f>F45+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K45" s="12">
@@ -3529,19 +8673,19 @@
         <v>85</v>
       </c>
       <c r="G46" s="13">
-        <f ca="1">C46*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H46" s="13">
-        <f ca="1">D46*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I46" s="13">
-        <f ca="1">E46*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J46" s="10">
-        <f>F46+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K46" s="12">
@@ -3595,19 +8739,19 @@
         <v>100</v>
       </c>
       <c r="G47" s="13">
-        <f ca="1">C47*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H47" s="13">
-        <f ca="1">D47*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I47" s="13">
-        <f ca="1">E47*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J47" s="10">
-        <f>F47+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K47" s="12">
@@ -3661,19 +8805,19 @@
         <v>110</v>
       </c>
       <c r="G48" s="13">
-        <f ca="1">C48*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H48" s="13">
-        <f ca="1">D48*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I48" s="13">
-        <f ca="1">E48*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J48" s="10">
-        <f>F48+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K48" s="12">
@@ -3727,19 +8871,19 @@
         <v>120</v>
       </c>
       <c r="G49" s="13">
-        <f ca="1">C49*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H49" s="13">
-        <f ca="1">D49*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I49" s="13">
-        <f ca="1">E49*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J49" s="10">
-        <f>F49+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K49" s="12">
@@ -3793,19 +8937,19 @@
         <v>85</v>
       </c>
       <c r="G50" s="13">
-        <f ca="1">C50*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H50" s="13">
-        <f ca="1">D50*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I50" s="13">
-        <f ca="1">E50*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J50" s="10">
-        <f>F50+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K50" s="12">
@@ -3859,19 +9003,19 @@
         <v>100</v>
       </c>
       <c r="G51" s="13">
-        <f ca="1">C51*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H51" s="13">
-        <f ca="1">D51*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I51" s="13">
-        <f ca="1">E51*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J51" s="10">
-        <f>F51+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K51" s="12">
@@ -3925,19 +9069,19 @@
         <v>110</v>
       </c>
       <c r="G52" s="13">
-        <f ca="1">C52*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H52" s="13">
-        <f ca="1">D52*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I52" s="13">
-        <f ca="1">E52*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J52" s="10">
-        <f>F52+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K52" s="12">
@@ -3991,19 +9135,19 @@
         <v>120</v>
       </c>
       <c r="G53" s="13">
-        <f ca="1">C53*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H53" s="13">
-        <f ca="1">D53*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I53" s="13">
-        <f ca="1">E53*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J53" s="10">
-        <f>F53+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K53" s="12">
@@ -4057,19 +9201,19 @@
         <v>85</v>
       </c>
       <c r="G54" s="13">
-        <f ca="1">C54*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H54" s="13">
-        <f ca="1">D54*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I54" s="13">
-        <f ca="1">E54*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J54" s="10">
-        <f>F54+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K54" s="12">
@@ -4123,19 +9267,19 @@
         <v>100</v>
       </c>
       <c r="G55" s="13">
-        <f ca="1">C55*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H55" s="13">
-        <f ca="1">D55*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I55" s="13">
-        <f ca="1">E55*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J55" s="10">
-        <f>F55+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K55" s="12">
@@ -4189,19 +9333,19 @@
         <v>110</v>
       </c>
       <c r="G56" s="13">
-        <f ca="1">C56*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H56" s="13">
-        <f ca="1">D56*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I56" s="13">
-        <f ca="1">E56*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J56" s="10">
-        <f>F56+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K56" s="12">
@@ -4255,19 +9399,19 @@
         <v>120</v>
       </c>
       <c r="G57" s="13">
-        <f ca="1">C57*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H57" s="13">
-        <f ca="1">D57*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I57" s="13">
-        <f ca="1">E57*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J57" s="10">
-        <f>F57+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K57" s="12">
@@ -4321,19 +9465,19 @@
         <v>85</v>
       </c>
       <c r="G58" s="13">
-        <f ca="1">C58*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H58" s="13">
-        <f ca="1">D58*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I58" s="13">
-        <f ca="1">E58*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J58" s="10">
-        <f>F58+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K58" s="12">
@@ -4387,19 +9531,19 @@
         <v>100</v>
       </c>
       <c r="G59" s="13">
-        <f ca="1">C59*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H59" s="13">
-        <f ca="1">D59*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I59" s="13">
-        <f ca="1">E59*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J59" s="10">
-        <f>F59+273.15</f>
+        <f t="shared" si="7"/>
         <v>373.15</v>
       </c>
       <c r="K59" s="12">
@@ -4453,19 +9597,19 @@
         <v>110</v>
       </c>
       <c r="G60" s="13">
-        <f ca="1">C60*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H60" s="13">
-        <f ca="1">D60*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I60" s="13">
-        <f ca="1">E60*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J60" s="10">
-        <f>F60+273.15</f>
+        <f t="shared" si="7"/>
         <v>383.15</v>
       </c>
       <c r="K60" s="12">
@@ -4519,19 +9663,19 @@
         <v>120</v>
       </c>
       <c r="G61" s="13">
-        <f ca="1">C61*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H61" s="13">
-        <f ca="1">D61*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
       <c r="I61" s="13">
-        <f ca="1">E61*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J61" s="10">
-        <f>F61+273.15</f>
+        <f t="shared" si="7"/>
         <v>393.15</v>
       </c>
       <c r="K61" s="12">
@@ -4585,19 +9729,19 @@
         <v>85</v>
       </c>
       <c r="G62" s="13">
-        <f ca="1">C62*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="H62" s="13">
-        <f ca="1">D62*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I62" s="13">
-        <f ca="1">E62*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.2</v>
       </c>
       <c r="J62" s="10">
-        <f>F62+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K62" s="10">
@@ -4651,19 +9795,19 @@
         <v>85</v>
       </c>
       <c r="G63" s="13">
-        <f ca="1">C63*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1.5</v>
       </c>
       <c r="H63" s="13">
-        <f ca="1">D63*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I63" s="13">
-        <f ca="1">E63*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.2</v>
       </c>
       <c r="J63" s="10">
-        <f>F63+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K63" s="10">
@@ -4717,19 +9861,19 @@
         <v>85</v>
       </c>
       <c r="G64" s="13">
-        <f ca="1">C64*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="H64" s="13">
-        <f ca="1">D64*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I64" s="13">
-        <f ca="1">E64*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.2</v>
       </c>
       <c r="J64" s="10">
-        <f>F64+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K64" s="10">
@@ -4783,19 +9927,19 @@
         <v>85</v>
       </c>
       <c r="G65" s="13">
-        <f ca="1">C65*$H$3</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2.5</v>
       </c>
       <c r="H65" s="13">
-        <f ca="1">D65*$H$3</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3</v>
       </c>
       <c r="I65" s="13">
-        <f ca="1">E65*$H$3</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.2</v>
       </c>
       <c r="J65" s="10">
-        <f>F65+273.15</f>
+        <f t="shared" si="7"/>
         <v>358.15</v>
       </c>
       <c r="K65" s="10">
@@ -4849,19 +9993,19 @@
         <v>85</v>
       </c>
       <c r="G66" s="13">
-        <f ca="1">C66*$H$3</f>
+        <f t="shared" ref="G66:G93" ca="1" si="8">C66*$H$3</f>
         <v>3</v>
       </c>
       <c r="H66" s="13">
-        <f ca="1">D66*$H$3</f>
+        <f t="shared" ref="H66:H93" ca="1" si="9">D66*$H$3</f>
         <v>0.3</v>
       </c>
       <c r="I66" s="13">
-        <f ca="1">E66*$H$3</f>
+        <f t="shared" ref="I66:I93" ca="1" si="10">E66*$H$3</f>
         <v>0.2</v>
       </c>
       <c r="J66" s="10">
-        <f>F66+273.15</f>
+        <f t="shared" ref="J66:J93" si="11">F66+273.15</f>
         <v>358.15</v>
       </c>
       <c r="K66" s="10">
@@ -4915,19 +10059,19 @@
         <v>110</v>
       </c>
       <c r="G67" s="13">
-        <f ca="1">C67*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H67" s="13">
-        <f ca="1">D67*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.3</v>
       </c>
       <c r="I67" s="13">
-        <f ca="1">E67*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.2</v>
       </c>
       <c r="J67" s="10">
-        <f>F67+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K67" s="10">
@@ -4981,19 +10125,19 @@
         <v>110</v>
       </c>
       <c r="G68" s="13">
-        <f ca="1">C68*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H68" s="13">
-        <f ca="1">D68*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.4</v>
       </c>
       <c r="I68" s="13">
-        <f ca="1">E68*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.3</v>
       </c>
       <c r="J68" s="10">
-        <f>F68+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K68" s="10">
@@ -5047,19 +10191,19 @@
         <v>110</v>
       </c>
       <c r="G69" s="13">
-        <f ca="1">C69*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H69" s="13">
-        <f ca="1">D69*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I69" s="13">
-        <f ca="1">E69*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.35</v>
       </c>
       <c r="J69" s="10">
-        <f>F69+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K69" s="10">
@@ -5113,19 +10257,19 @@
         <v>110</v>
       </c>
       <c r="G70" s="13">
-        <f ca="1">C70*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H70" s="13">
-        <f ca="1">D70*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I70" s="13">
-        <f ca="1">E70*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.4</v>
       </c>
       <c r="J70" s="10">
-        <f>F70+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K70" s="10">
@@ -5179,19 +10323,19 @@
         <v>110</v>
       </c>
       <c r="G71" s="13">
-        <f ca="1">C71*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H71" s="13">
-        <f ca="1">D71*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.6</v>
       </c>
       <c r="I71" s="13">
-        <f ca="1">E71*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J71" s="10">
-        <f>F71+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K71" s="10">
@@ -5245,19 +10389,19 @@
         <v>110</v>
       </c>
       <c r="G72" s="13">
-        <f ca="1">C72*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H72" s="13">
-        <f ca="1">D72*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.2</v>
       </c>
       <c r="I72" s="13">
-        <f ca="1">E72*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.2</v>
       </c>
       <c r="J72" s="10">
-        <f>F72+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K72" s="10">
@@ -5311,19 +10455,19 @@
         <v>110</v>
       </c>
       <c r="G73" s="13">
-        <f ca="1">C73*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H73" s="13">
-        <f ca="1">D73*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.25</v>
       </c>
       <c r="I73" s="13">
-        <f ca="1">E73*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.25</v>
       </c>
       <c r="J73" s="10">
-        <f>F73+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K73" s="10">
@@ -5377,19 +10521,19 @@
         <v>110</v>
       </c>
       <c r="G74" s="13">
-        <f ca="1">C74*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H74" s="13">
-        <f ca="1">D74*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.3</v>
       </c>
       <c r="I74" s="13">
-        <f ca="1">E74*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.3</v>
       </c>
       <c r="J74" s="10">
-        <f>F74+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K74" s="10">
@@ -5443,19 +10587,19 @@
         <v>110</v>
       </c>
       <c r="G75" s="13">
-        <f ca="1">C75*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H75" s="13">
-        <f ca="1">D75*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.35</v>
       </c>
       <c r="I75" s="13">
-        <f ca="1">E75*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.35</v>
       </c>
       <c r="J75" s="10">
-        <f>F75+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K75" s="10">
@@ -5509,19 +10653,19 @@
         <v>110</v>
       </c>
       <c r="G76" s="13">
-        <f ca="1">C76*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H76" s="13">
-        <f ca="1">D76*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.4</v>
       </c>
       <c r="I76" s="13">
-        <f ca="1">E76*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.4</v>
       </c>
       <c r="J76" s="10">
-        <f>F76+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K76" s="10">
@@ -5575,19 +10719,19 @@
         <v>110</v>
       </c>
       <c r="G77" s="13">
-        <f ca="1">C77*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H77" s="13">
-        <f ca="1">D77*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I77" s="13">
-        <f ca="1">E77*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.45</v>
       </c>
       <c r="J77" s="10">
-        <f>F77+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K77" s="10">
@@ -5641,19 +10785,19 @@
         <v>110</v>
       </c>
       <c r="G78" s="13">
-        <f ca="1">C78*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H78" s="13">
-        <f ca="1">D78*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I78" s="13">
-        <f ca="1">E78*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J78" s="10">
-        <f>F78+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K78" s="10">
@@ -5707,19 +10851,19 @@
         <v>110</v>
       </c>
       <c r="G79" s="13">
-        <f ca="1">C79*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H79" s="13">
-        <f ca="1">D79*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.6</v>
       </c>
       <c r="I79" s="13">
-        <f ca="1">E79*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.6</v>
       </c>
       <c r="J79" s="10">
-        <f>F79+273.15</f>
+        <f t="shared" si="11"/>
         <v>383.15</v>
       </c>
       <c r="K79" s="10">
@@ -5773,19 +10917,19 @@
         <v>100</v>
       </c>
       <c r="G80" s="13">
-        <f ca="1">C80*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H80" s="13">
-        <f ca="1">D80*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.25</v>
       </c>
       <c r="I80" s="13">
-        <f ca="1">E80*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.25</v>
       </c>
       <c r="J80" s="10">
-        <f>F80+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K80" s="12">
@@ -5839,19 +10983,19 @@
         <v>100</v>
       </c>
       <c r="G81" s="13">
-        <f ca="1">C81*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H81" s="13">
-        <f ca="1">D81*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.3</v>
       </c>
       <c r="I81" s="13">
-        <f ca="1">E81*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.3</v>
       </c>
       <c r="J81" s="10">
-        <f>F81+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K81" s="12">
@@ -5905,19 +11049,19 @@
         <v>100</v>
       </c>
       <c r="G82" s="13">
-        <f ca="1">C82*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H82" s="13">
-        <f ca="1">D82*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.35</v>
       </c>
       <c r="I82" s="13">
-        <f ca="1">E82*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.35</v>
       </c>
       <c r="J82" s="10">
-        <f>F82+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K82" s="12">
@@ -5971,19 +11115,19 @@
         <v>100</v>
       </c>
       <c r="G83" s="13">
-        <f ca="1">C83*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H83" s="13">
-        <f ca="1">D83*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.4</v>
       </c>
       <c r="I83" s="13">
-        <f ca="1">E83*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.4</v>
       </c>
       <c r="J83" s="10">
-        <f>F83+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K83" s="12">
@@ -6037,19 +11181,19 @@
         <v>100</v>
       </c>
       <c r="G84" s="13">
-        <f ca="1">C84*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H84" s="13">
-        <f ca="1">D84*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I84" s="13">
-        <f ca="1">E84*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.45</v>
       </c>
       <c r="J84" s="10">
-        <f>F84+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K84" s="12">
@@ -6103,19 +11247,19 @@
         <v>100</v>
       </c>
       <c r="G85" s="13">
-        <f ca="1">C85*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H85" s="13">
-        <f ca="1">D85*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I85" s="13">
-        <f ca="1">E85*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J85" s="10">
-        <f>F85+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K85" s="12">
@@ -6169,19 +11313,19 @@
         <v>100</v>
       </c>
       <c r="G86" s="13">
-        <f ca="1">C86*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H86" s="13">
-        <f ca="1">D86*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.6</v>
       </c>
       <c r="I86" s="13">
-        <f ca="1">E86*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.6</v>
       </c>
       <c r="J86" s="10">
-        <f>F86+273.15</f>
+        <f t="shared" si="11"/>
         <v>373.15</v>
       </c>
       <c r="K86" s="12">
@@ -6235,19 +11379,19 @@
         <v>120</v>
       </c>
       <c r="G87" s="13">
-        <f ca="1">C87*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H87" s="13">
-        <f ca="1">D87*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.2</v>
       </c>
       <c r="I87" s="13">
-        <f ca="1">E87*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.1</v>
       </c>
       <c r="J87" s="10">
-        <f>F87+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K87" s="12">
@@ -6301,19 +11445,19 @@
         <v>120</v>
       </c>
       <c r="G88" s="13">
-        <f ca="1">C88*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H88" s="13">
-        <f ca="1">D88*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.25</v>
       </c>
       <c r="I88" s="13">
-        <f ca="1">E88*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.15</v>
       </c>
       <c r="J88" s="10">
-        <f>F88+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K88" s="12">
@@ -6367,19 +11511,19 @@
         <v>120</v>
       </c>
       <c r="G89" s="13">
-        <f ca="1">C89*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H89" s="13">
-        <f ca="1">D89*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.3</v>
       </c>
       <c r="I89" s="13">
-        <f ca="1">E89*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.2</v>
       </c>
       <c r="J89" s="10">
-        <f>F89+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K89" s="12">
@@ -6433,19 +11577,19 @@
         <v>120</v>
       </c>
       <c r="G90" s="13">
-        <f ca="1">C90*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H90" s="13">
-        <f ca="1">D90*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.4</v>
       </c>
       <c r="I90" s="13">
-        <f ca="1">E90*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.3</v>
       </c>
       <c r="J90" s="10">
-        <f>F90+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K90" s="12">
@@ -6499,19 +11643,19 @@
         <v>120</v>
       </c>
       <c r="G91" s="13">
-        <f ca="1">C91*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H91" s="13">
-        <f ca="1">D91*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I91" s="13">
-        <f ca="1">E91*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.35</v>
       </c>
       <c r="J91" s="10">
-        <f>F91+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K91" s="12">
@@ -6565,19 +11709,19 @@
         <v>120</v>
       </c>
       <c r="G92" s="13">
-        <f ca="1">C92*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H92" s="13">
-        <f ca="1">D92*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I92" s="13">
-        <f ca="1">E92*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.4</v>
       </c>
       <c r="J92" s="10">
-        <f>F92+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K92" s="12">
@@ -6631,19 +11775,19 @@
         <v>120</v>
       </c>
       <c r="G93" s="13">
-        <f ca="1">C93*$H$3</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="H93" s="13">
-        <f ca="1">D93*$H$3</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0.6</v>
       </c>
       <c r="I93" s="13">
-        <f ca="1">E93*$H$3</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J93" s="10">
-        <f>F93+273.15</f>
+        <f t="shared" si="11"/>
         <v>393.15</v>
       </c>
       <c r="K93" s="12">
@@ -6731,22 +11875,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A122C0-FC47-48E2-BCD3-794E79EEB5DB}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
@@ -6757,26 +11901,23 @@
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6792,26 +11933,23 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>4.7850855453808698</v>
+      <c r="G2">
+        <v>4.6222440653372692</v>
       </c>
       <c r="H2">
-        <v>4.6222440653372692</v>
+        <v>5.3314502518682696</v>
       </c>
       <c r="I2">
-        <v>5.3314502518682696</v>
+        <v>3.834282</v>
       </c>
       <c r="J2">
-        <v>3.834282</v>
+        <v>4.8074822181605903</v>
       </c>
       <c r="K2">
-        <v>4.8074822181605903</v>
-      </c>
-      <c r="L2">
         <v>4.8653124329500503</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6827,26 +11965,23 @@
       <c r="E3" s="3">
         <v>1.5</v>
       </c>
-      <c r="F3" s="3">
-        <v>4.8686552199320996</v>
+      <c r="G3">
+        <v>4.787950791447229</v>
       </c>
       <c r="H3">
-        <v>4.787950791447229</v>
+        <v>5.3671566327109499</v>
       </c>
       <c r="I3">
-        <v>5.3671566327109499</v>
+        <v>4.0232999999999999</v>
       </c>
       <c r="J3">
-        <v>4.0232999999999999</v>
+        <v>4.8114935625390496</v>
       </c>
       <c r="K3">
-        <v>4.8114935625390496</v>
-      </c>
-      <c r="L3">
         <v>4.8853691548423397</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6862,26 +11997,23 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
-        <v>4.9689388293935783</v>
+      <c r="G4">
+        <v>4.9679837474803863</v>
       </c>
       <c r="H4">
-        <v>4.9679837474803863</v>
+        <v>5.4028630135536302</v>
       </c>
       <c r="I4">
-        <v>5.4028630135536302</v>
+        <v>4.3209065999999998</v>
       </c>
       <c r="J4">
-        <v>4.3209065999999998</v>
+        <v>4.9555676814653697</v>
       </c>
       <c r="K4">
-        <v>4.9555676814653697</v>
-      </c>
-      <c r="L4">
         <v>4.9087686637166899</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6897,26 +12029,23 @@
       <c r="E5" s="3">
         <v>2.5</v>
       </c>
-      <c r="F5" s="3">
-        <v>5.1026503086755488</v>
+      <c r="G5">
+        <v>5.1623429334367419</v>
       </c>
       <c r="H5">
-        <v>5.1623429334367419</v>
+        <v>5.4385693943963096</v>
       </c>
       <c r="I5">
-        <v>5.4385693943963096</v>
+        <v>4.7290372999999999</v>
       </c>
       <c r="J5">
-        <v>4.7290372999999999</v>
+        <v>5.0817578900377303</v>
       </c>
       <c r="K5">
-        <v>5.0817578900377303</v>
-      </c>
-      <c r="L5">
         <v>4.94553932051923</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6932,26 +12061,23 @@
       <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
-        <v>5.1862199832267821</v>
+      <c r="G6">
+        <v>5.3710283493162976</v>
       </c>
       <c r="H6">
-        <v>5.3710283493162976</v>
+        <v>5.4742757752389899</v>
       </c>
       <c r="I6">
-        <v>5.4742757752389899</v>
+        <v>5.2409772999999999</v>
       </c>
       <c r="J6">
-        <v>5.2409772999999999</v>
+        <v>5.1464408181404</v>
       </c>
       <c r="K6">
-        <v>5.1464408181404</v>
-      </c>
-      <c r="L6">
         <v>4.94553932051923</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6967,26 +12093,23 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>4.2836674980734886</v>
+      <c r="G7">
+        <v>4.1308543789791079</v>
       </c>
       <c r="H7">
-        <v>4.1308543789791079</v>
+        <v>4.42244813782869</v>
       </c>
       <c r="I7">
-        <v>4.42244813782869</v>
+        <v>3.4564571000000002</v>
       </c>
       <c r="J7">
-        <v>3.4564571000000002</v>
+        <v>4.3018856871256599</v>
       </c>
       <c r="K7">
-        <v>4.3018856871256599</v>
-      </c>
-      <c r="L7">
         <v>4.1466132318094697</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7002,26 +12125,23 @@
       <c r="E8" s="3">
         <v>1.5</v>
       </c>
-      <c r="F8" s="3">
-        <v>4.3839511075349646</v>
+      <c r="G8">
+        <v>4.2965611050890677</v>
       </c>
       <c r="H8">
-        <v>4.2965611050890677</v>
+        <v>4.4581545186713702</v>
       </c>
       <c r="I8">
-        <v>4.4581545186713702</v>
+        <v>3.6082103000000001</v>
       </c>
       <c r="J8">
-        <v>3.6082103000000001</v>
+        <v>4.3409962948156302</v>
       </c>
       <c r="K8">
-        <v>4.3409962948156302</v>
-      </c>
-      <c r="L8">
         <v>4.1466132318094697</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7037,26 +12157,23 @@
       <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
-        <v>4.5009486519066888</v>
+      <c r="G9">
+        <v>4.476594061122225</v>
       </c>
       <c r="H9">
-        <v>4.476594061122225</v>
+        <v>4.4938608995140497</v>
       </c>
       <c r="I9">
-        <v>4.4938608995140497</v>
+        <v>3.86558</v>
       </c>
       <c r="J9">
-        <v>3.86558</v>
+        <v>4.4536482161106896</v>
       </c>
       <c r="K9">
-        <v>4.4536482161106896</v>
-      </c>
-      <c r="L9">
         <v>4.2101261844684004</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7072,26 +12189,23 @@
       <c r="E10" s="3">
         <v>2.5</v>
       </c>
-      <c r="F10" s="3">
-        <v>4.6012322613681658</v>
+      <c r="G10">
+        <v>4.6709532470785806</v>
       </c>
       <c r="H10">
-        <v>4.6709532470785806</v>
+        <v>4.5295672803567397</v>
       </c>
       <c r="I10">
-        <v>4.5295672803567397</v>
+        <v>4.2338089999999999</v>
       </c>
       <c r="J10">
-        <v>4.2338089999999999</v>
+        <v>4.55777603060152</v>
       </c>
       <c r="K10">
-        <v>4.55777603060152</v>
-      </c>
-      <c r="L10">
         <v>4.2803247110914304</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7107,26 +12221,23 @@
       <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
-        <v>4.6848019359193938</v>
+      <c r="G11">
+        <v>4.8796386629581363</v>
       </c>
       <c r="H11">
-        <v>4.8796386629581363</v>
+        <v>4.56527366119942</v>
       </c>
       <c r="I11">
-        <v>4.56527366119942</v>
+        <v>4.7116346</v>
       </c>
       <c r="J11">
-        <v>4.7116346</v>
+        <v>4.63482727053775</v>
       </c>
       <c r="K11">
-        <v>4.63482727053775</v>
-      </c>
-      <c r="L11">
         <v>4.3505232377144702</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7142,26 +12253,23 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
-        <v>2.6958436816001026</v>
+      <c r="G12">
+        <v>2.8839948346439424</v>
       </c>
       <c r="H12">
-        <v>2.8839948346439424</v>
+        <v>3.8164467284689798</v>
       </c>
       <c r="I12">
-        <v>3.8164467284689798</v>
+        <v>3.2187953</v>
       </c>
       <c r="J12">
-        <v>3.2187953</v>
+        <v>2.8907281626535699</v>
       </c>
       <c r="K12">
-        <v>2.8907281626535699</v>
-      </c>
-      <c r="L12">
         <v>3.5616255099508498</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7177,26 +12285,23 @@
       <c r="E13" s="3">
         <v>1.5</v>
       </c>
-      <c r="F13" s="3">
-        <v>2.8796969656128106</v>
+      <c r="G13">
+        <v>3.0497015607539009</v>
       </c>
       <c r="H13">
-        <v>3.0497015607539009</v>
+        <v>3.8521531093116601</v>
       </c>
       <c r="I13">
-        <v>3.8521531093116601</v>
+        <v>3.3467693000000001</v>
       </c>
       <c r="J13">
-        <v>3.3467693000000001</v>
+        <v>2.98934037862402</v>
       </c>
       <c r="K13">
-        <v>2.98934037862402</v>
-      </c>
-      <c r="L13">
         <v>3.1972617289074798</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7212,26 +12317,23 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>3.1972617289074847</v>
+      <c r="G14">
+        <v>3.229734516787059</v>
       </c>
       <c r="H14">
-        <v>3.229734516787059</v>
+        <v>3.88785949015434</v>
       </c>
       <c r="I14">
-        <v>3.88785949015434</v>
+        <v>3.5774013999999998</v>
       </c>
       <c r="J14">
-        <v>3.5774013999999998</v>
+        <v>3.1497941537623801</v>
       </c>
       <c r="K14">
-        <v>3.1497941537623801</v>
-      </c>
-      <c r="L14">
         <v>3.2574318945843701</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7247,26 +12349,23 @@
       <c r="E15" s="3">
         <v>2.5</v>
       </c>
-      <c r="F15" s="3">
-        <v>3.5482543620226576</v>
+      <c r="G15">
+        <v>3.4240937027434151</v>
       </c>
       <c r="H15">
-        <v>3.4240937027434151</v>
+        <v>3.9235658709970198</v>
       </c>
       <c r="I15">
-        <v>3.9235658709970198</v>
+        <v>3.9175219999999999</v>
       </c>
       <c r="J15">
-        <v>3.9175219999999999</v>
+        <v>3.4618433185366801</v>
       </c>
       <c r="K15">
-        <v>3.4618433185366801</v>
-      </c>
-      <c r="L15">
         <v>3.2574318945843701</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7282,26 +12381,23 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="3">
-        <v>3.8992469951378252</v>
+      <c r="G16">
+        <v>3.6327791186229699</v>
       </c>
       <c r="H16">
-        <v>3.6327791186229699</v>
+        <v>3.9592722518397001</v>
       </c>
       <c r="I16">
-        <v>3.9592722518397001</v>
+        <v>4.3688570000000002</v>
       </c>
       <c r="J16">
-        <v>4.3688570000000002</v>
+        <v>3.72508779337306</v>
       </c>
       <c r="K16">
-        <v>3.72508779337306</v>
-      </c>
-      <c r="L16">
         <v>3.6418523975200299</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7317,26 +12413,23 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
-        <v>2.2947092437541938</v>
+      <c r="G17">
+        <v>2.3825767873794912</v>
       </c>
       <c r="H17">
-        <v>2.3825767873794912</v>
+        <v>3.2104453191092599</v>
       </c>
       <c r="I17">
-        <v>3.2104453191092599</v>
+        <v>2.9925641999999999</v>
       </c>
       <c r="J17">
-        <v>2.9925641999999999</v>
+        <v>2.3901458120917001</v>
       </c>
       <c r="K17">
-        <v>2.3901458120917001</v>
-      </c>
-      <c r="L17">
         <v>2.7192431904744399</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7352,26 +12445,23 @@
       <c r="E18" s="3">
         <v>1.5</v>
       </c>
-      <c r="F18" s="3">
-        <v>2.4618485928566525</v>
+      <c r="G18">
+        <v>2.5482835134894497</v>
       </c>
       <c r="H18">
-        <v>2.5482835134894497</v>
+        <v>3.2461516999519402</v>
       </c>
       <c r="I18">
-        <v>3.2461516999519402</v>
+        <v>3.097896</v>
       </c>
       <c r="J18">
-        <v>3.097896</v>
+        <v>2.519511668297</v>
       </c>
       <c r="K18">
-        <v>2.519511668297</v>
-      </c>
-      <c r="L18">
         <v>2.7192431904744399</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7387,26 +12477,23 @@
       <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="3">
-        <v>2.7626994212410878</v>
+      <c r="G19">
+        <v>2.7283164695226079</v>
       </c>
       <c r="H19">
-        <v>2.7283164695226079</v>
+        <v>3.28185808079462</v>
       </c>
       <c r="I19">
-        <v>3.28185808079462</v>
+        <v>3.302368</v>
       </c>
       <c r="J19">
-        <v>3.302368</v>
+        <v>2.7351214286391698</v>
       </c>
       <c r="K19">
-        <v>2.7351214286391698</v>
-      </c>
-      <c r="L19">
         <v>2.7192431904744399</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7422,26 +12509,23 @@
       <c r="E20" s="3">
         <v>2.5</v>
       </c>
-      <c r="F20" s="3">
-        <v>2.979980575074288</v>
+      <c r="G20">
+        <v>2.9226756554789639</v>
       </c>
       <c r="H20">
-        <v>2.9226756554789639</v>
+        <v>3.3175644616372999</v>
       </c>
       <c r="I20">
-        <v>3.3175644616372999</v>
+        <v>3.6139277999999999</v>
       </c>
       <c r="J20">
-        <v>3.6139277999999999</v>
+        <v>3.1048336688538201</v>
       </c>
       <c r="K20">
-        <v>3.1048336688538201</v>
-      </c>
-      <c r="L20">
         <v>2.9933517230024802</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7457,43 +12541,40 @@
       <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>3.2139756638177328</v>
+      <c r="G21">
+        <v>3.1313610713585187</v>
       </c>
       <c r="H21">
-        <v>3.1313610713585187</v>
+        <v>3.3532708424799802</v>
       </c>
       <c r="I21">
-        <v>3.3532708424799802</v>
+        <v>4.0367327</v>
       </c>
       <c r="J21">
-        <v>4.0367327</v>
+        <v>3.3237862161780498</v>
       </c>
       <c r="K21">
-        <v>3.3237862161780498</v>
-      </c>
-      <c r="L21">
         <v>2.9933517230024802</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f>RSQ($B$2:$B$21,G2:G21)</f>
+        <v>0.98218598260605394</v>
+      </c>
       <c r="H22">
-        <f>RSQ($B$2:$B$21,H2:H21)</f>
-        <v>0.98218598260605394</v>
+        <f t="shared" ref="H22:K22" si="0">RSQ($B$2:$B$21,H2:H21)</f>
+        <v>0.87910334391129163</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:L22" si="0">RSQ($B$2:$B$21,I2:I21)</f>
-        <v>0.87910334391129163</v>
+        <f t="shared" si="0"/>
+        <v>0.63539386800088271</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0.63539386800088271</v>
+        <v>0.99396480735532466</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0.99396480735532466</v>
-      </c>
-      <c r="L22">
         <f t="shared" si="0"/>
         <v>0.91629273317925519</v>
       </c>
